--- a/doc/BACKLOG.xlsx
+++ b/doc/BACKLOG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frostyl\Repozytoria\Text-transformers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frostyl\Repozytoria\Text-transformer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB258D-E614-418A-8A50-F0A20D5D4AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72347AF5-CD3C-4049-A023-FD261DD30D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>14h</t>
+  </si>
+  <si>
+    <t>Diagram Sekwencji</t>
   </si>
 </sst>
 </file>
@@ -444,6 +447,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7063980</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>198530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950BF344-2EFA-429E-9F69-64B9AB14D687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="3683000"/>
+          <a:ext cx="6949680" cy="4872130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>743325</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>44841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1765816-D41A-462E-8ACF-3B1E726F874E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="9423400"/>
+          <a:ext cx="10446125" cy="5975741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -794,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -821,8 +917,19 @@
         <v>53</v>
       </c>
     </row>
+    <row r="7" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1027,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>

--- a/doc/BACKLOG.xlsx
+++ b/doc/BACKLOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frostyl\Repozytoria\Text-transformer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72347AF5-CD3C-4049-A023-FD261DD30D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB308F4-A0B5-455F-94BE-7133BCB019A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>Diagram Sekwencji</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>Dodanie testów jednostkowych</t>
+  </si>
+  <si>
+    <t>Utworzenie testów nie wymagających zewnętrznych obiektów</t>
+  </si>
+  <si>
+    <t>Utworzenie testów wymagających wywołania metod z zwenętrznych klas za pomocą mock objectów</t>
+  </si>
+  <si>
+    <t>Akcje naprawcze</t>
+  </si>
+  <si>
+    <t>Aplikacja buduje się w sposób automatyczny</t>
   </si>
 </sst>
 </file>
@@ -892,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -943,7 +961,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1111,6 +1129,15 @@
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1132,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C30"/>
+  <dimension ref="A2:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1373,6 +1400,70 @@
         <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>44</v>
       </c>
     </row>

--- a/doc/BACKLOG.xlsx
+++ b/doc/BACKLOG.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frostyl\Repozytoria\Text-transformer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB308F4-A0B5-455F-94BE-7133BCB019A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC94232-9C74-4B45-B9F3-45920E654F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog #1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint Backlog #2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -195,9 +196,6 @@
     <t>5h</t>
   </si>
   <si>
-    <t>Nauka wybranych metod prezentowanych w ramach przedmiotu poprzez praktykę</t>
-  </si>
-  <si>
     <t>Implementacja</t>
   </si>
   <si>
@@ -228,22 +226,46 @@
     <t>Diagram Sekwencji</t>
   </si>
   <si>
-    <t>15h</t>
-  </si>
-  <si>
     <t>Dodanie testów jednostkowych</t>
   </si>
   <si>
-    <t>Utworzenie testów nie wymagających zewnętrznych obiektów</t>
-  </si>
-  <si>
-    <t>Utworzenie testów wymagających wywołania metod z zwenętrznych klas za pomocą mock objectów</t>
-  </si>
-  <si>
     <t>Akcje naprawcze</t>
   </si>
   <si>
     <t>Aplikacja buduje się w sposób automatyczny</t>
+  </si>
+  <si>
+    <t>Wprowadzenie testów oraz implementacja GUI</t>
+  </si>
+  <si>
+    <t>Implementacja wybranych transformacji</t>
+  </si>
+  <si>
+    <t>Utworzenie testów dla transformacji number_to_text przy pomocy mock objects</t>
+  </si>
+  <si>
+    <t>Utworzenie testów dla transformacji capitalize przy pomocy mock objects</t>
+  </si>
+  <si>
+    <t>Utworzenie testów dla transformacji expand_shortcuts</t>
+  </si>
+  <si>
+    <t>Utworzenie testów dla transformacji inverse</t>
+  </si>
+  <si>
+    <t>Utworzenie testów dla transformacji remove_duplicates</t>
+  </si>
+  <si>
+    <t>Utworzenie testów dla transformacji lower</t>
+  </si>
+  <si>
+    <t>Utworzenie testów dla transformacji upper</t>
+  </si>
+  <si>
+    <t>Utworzenie testów dla transformacji abbreviate</t>
+  </si>
+  <si>
+    <t>8h</t>
   </si>
 </sst>
 </file>
@@ -403,7 +425,29 @@
     <cellStyle name="Odwiedzone hiperłącze" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -561,26 +605,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C42" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C42" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A4:C42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C11FB015-BFE5-4401-8C61-4A76C4DFE1E7}" name="Tabela32" displayName="Tabela32" ref="A4:C45" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A4:C45" xr:uid="{C11FB015-BFE5-4401-8C61-4A76C4DFE1E7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{741F8320-1A6E-47F6-BBB9-24FE5CFEC1BA}" name="Element rejestru produktu" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EE88220D-DE1B-4BCC-8A4E-967C484DA4C6}" name="Zadania" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{546DD776-75C4-48A1-8B46-8E54D10ED257}" name="Pracochłonność " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -932,7 +988,7 @@
     </row>
     <row r="4" spans="1:1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
@@ -942,7 +998,7 @@
     </row>
     <row r="35" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1017,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -998,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1009,7 +1065,7 @@
     </row>
     <row r="3" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4">
         <v>12</v>
@@ -1060,7 +1116,7 @@
     </row>
     <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -1134,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -1159,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C38"/>
+  <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1172,12 +1228,12 @@
     <col min="3" max="3" width="33" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C2"/>
     </row>
@@ -1200,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1221,7 +1277,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>40</v>
@@ -1229,7 +1285,7 @@
     </row>
     <row r="9" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>45</v>
@@ -1277,7 +1333,7 @@
     </row>
     <row r="15" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>45</v>
@@ -1333,7 +1389,7 @@
     </row>
     <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>40</v>
@@ -1344,7 +1400,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1389,7 +1445,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>44</v>
@@ -1397,73 +1453,9 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1479,4 +1471,245 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06009C4B-9BA6-4C30-811A-E6F637073842}">
+  <dimension ref="A2:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>